--- a/DATA_goal/Junction_Flooding_240.xlsx
+++ b/DATA_goal/Junction_Flooding_240.xlsx
@@ -444,17 +444,17 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -465,13 +465,13 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41672.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.23</v>
+        <v>3.72</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.34</v>
+        <v>2.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.69</v>
+        <v>4.27</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>200.94</v>
+        <v>20.09</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.01</v>
+        <v>3.8</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.84</v>
+        <v>2.48</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.8</v>
+        <v>2.18</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.1</v>
+        <v>3.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41672.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.15</v>
+        <v>1.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.89</v>
+        <v>4.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.07</v>
+        <v>5.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.97</v>
+        <v>2.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.99</v>
+        <v>1.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.88</v>
+        <v>2.19</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>228.45</v>
+        <v>22.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.32</v>
+        <v>4.33</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.81</v>
+        <v>2.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.96</v>
+        <v>2.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>53.87</v>
+        <v>5.39</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41672.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.63</v>
+        <v>4.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.56</v>
+        <v>3.96</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.25</v>
+        <v>6.82</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.65</v>
+        <v>1.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.5</v>
+        <v>1.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.52</v>
+        <v>2.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.87</v>
+        <v>2.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>259.36</v>
+        <v>25.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49</v>
+        <v>4.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.82</v>
+        <v>3.28</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.16</v>
+        <v>3.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.43</v>
+        <v>2.04</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.07</v>
+        <v>6.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41672.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41672.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41672.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>73.87</v>
+        <v>7.39</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41672.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>28.21</v>
+        <v>2.82</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>36.82</v>
+        <v>3.68</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>147.17</v>
+        <v>14.72</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>28.31</v>
+        <v>2.83</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.35</v>
+        <v>0.73</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>33.37</v>
+        <v>3.34</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41672.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>42.21</v>
+        <v>4.22</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>34.61</v>
+        <v>3.46</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>57.73</v>
+        <v>5.77</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.65</v>
+        <v>2.17</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>223.87</v>
+        <v>22.39</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>42.45</v>
+        <v>4.25</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>28.61</v>
+        <v>2.86</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.4</v>
+        <v>2.84</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>52.49</v>
+        <v>5.25</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41672.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="AF10" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>2.35</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_240.xlsx
+++ b/DATA_goal/Junction_Flooding_240.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41672.34027777778</v>
+        <v>44921.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.72</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.93</v>
+        <v>1.12</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.27</v>
+        <v>1.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.12</v>
+        <v>0.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.3</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.64</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.62</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.18</v>
-      </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>7.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.8</v>
+        <v>1.43</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.46</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.85</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.41</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.81</v>
+        <v>1.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.58</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41672.34722222222</v>
+        <v>44921.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.29</v>
+        <v>2.96</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.46</v>
+        <v>2.44</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.91</v>
+        <v>3.84</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.4</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.78</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>1.53</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.19</v>
-      </c>
       <c r="Q3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.91</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.85</v>
+        <v>15.83</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.33</v>
+        <v>3.04</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.99</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.39</v>
+        <v>3.48</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41672.35416666666</v>
+        <v>44921.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.24</v>
+        <v>1.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.64</v>
+        <v>0.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.86</v>
+        <v>2.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.96</v>
+        <v>2.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.76</v>
+        <v>0.93</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.82</v>
+        <v>3.72</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.71</v>
+        <v>1.46</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.05</v>
+        <v>1.1</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.75</v>
+        <v>0.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.49</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.78</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.94</v>
+        <v>13.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.9</v>
+        <v>2.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.85</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.28</v>
+        <v>1.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.72</v>
+        <v>0.98</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.32</v>
+        <v>1.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.76</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.04</v>
+        <v>1.13</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.21</v>
+        <v>3.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41672.36111111111</v>
+        <v>44921.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="K5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="O5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W5" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="X5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41672.36805555555</v>
+        <v>44921.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.14</v>
+        <v>7.34</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.08</v>
+        <v>5.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.31</v>
+        <v>16.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.21</v>
+        <v>13.51</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.11</v>
+        <v>5.95</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0.67</v>
+        <v>21.37</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.17</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.06</v>
+        <v>4.26</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.08</v>
+        <v>6.49</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.13</v>
+        <v>6.89</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.13</v>
+        <v>7.02</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.04</v>
+        <v>1.93</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.11</v>
+        <v>5.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.15</v>
+        <v>8.5</v>
       </c>
       <c r="Q6" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0.98</v>
+        <v>84.06</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.32</v>
+        <v>16.65</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.1</v>
+        <v>5.46</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.19</v>
+        <v>10.99</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.1</v>
+        <v>6.21</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.79</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.28</v>
+        <v>10.39</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.09</v>
+        <v>4.89</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.09</v>
+        <v>4.63</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.11</v>
+        <v>5.43</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.13</v>
+        <v>7.25</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>0.62</v>
+        <v>19</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.05</v>
+        <v>3.31</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41672.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41672.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41672.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41672.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41672.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>58.72</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>234.16</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>44.28</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>53.16</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>18.31</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_240.xlsx
+++ b/DATA_goal/Junction_Flooding_240.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44921.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44921.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.96</v>
+        <v>29.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.44</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.84</v>
+        <v>38.41</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.83</v>
+        <v>158.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.48</v>
+        <v>34.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44921.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.57</v>
+        <v>25.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.72</v>
+        <v>37.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.59</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.55</v>
+        <v>135.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.32</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.15</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.38</v>
+        <v>33.83</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44921.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_240.xlsx
+++ b/DATA_goal/Junction_Flooding_240.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,70 +655,70 @@
         <v>44921.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>6.25</v>
@@ -727,31 +727,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44921.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.17</v>
+        <v>13.174</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.415</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.241</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.62</v>
+        <v>29.617</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.44</v>
+        <v>24.437</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.77</v>
+        <v>10.774</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.41</v>
+        <v>38.408</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.88</v>
+        <v>16.878</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.787</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.79</v>
+        <v>11.789</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.51</v>
+        <v>12.514</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.775</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.501</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.56</v>
+        <v>10.562</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.35</v>
+        <v>15.347</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>158.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.4</v>
+        <v>30.405</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>9.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20</v>
+        <v>19.995</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.43</v>
+        <v>11.425</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.429</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.5</v>
+        <v>19.498</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.82</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.56</v>
+        <v>8.558999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>10.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.164</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.76</v>
+        <v>34.758</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.15</v>
+        <v>6.152</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.2</v>
+        <v>12.202</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44921.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.47</v>
+        <v>11.472</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.945</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.228</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.67</v>
+        <v>25.673</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>21.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.303000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.17</v>
+        <v>37.174</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.59</v>
+        <v>14.589</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.71</v>
+        <v>6.711</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.11</v>
+        <v>10.113</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.755</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11</v>
+        <v>11.001</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>3.02</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>9.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.33</v>
+        <v>13.326</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.81</v>
+        <v>7.808</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.178</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>135.54</v>
+        <v>135.542</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.32</v>
+        <v>26.316</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.545</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.42</v>
+        <v>17.416</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.76</v>
+        <v>9.757</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.232</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.15</v>
+        <v>18.154</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.627</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.27</v>
+        <v>7.266</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>11.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.83</v>
+        <v>33.829</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.2</v>
+        <v>5.205</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.61</v>
+        <v>10.605</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44921.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.06</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_240.xlsx
+++ b/DATA_goal/Junction_Flooding_240.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44921.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.022</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1</v>
+        <v>1.004</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.764</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.017</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>10.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.059</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.46</v>
+        <v>1.456</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.478</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.72</v>
+        <v>1.715</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.811</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.61</v>
+        <v>3.611</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.31</v>
+        <v>2.309</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.56</v>
+        <v>1.565</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.69</v>
+        <v>4.692</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.212</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.555</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.94</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44921.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>84.06</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_240.xlsx
+++ b/DATA_goal/Junction_Flooding_240.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44921.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.022</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.764</v>
+        <v>2.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.211</v>
+        <v>2.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.017</v>
+        <v>1.02</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>10.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.059</v>
+        <v>1.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.456</v>
+        <v>1.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.478</v>
+        <v>1.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.247</v>
+        <v>1.25</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.811</v>
+        <v>9.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.611</v>
+        <v>3.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.309</v>
+        <v>2.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.565</v>
+        <v>1.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.692</v>
+        <v>4.69</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.212</v>
+        <v>1.21</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.555</v>
+        <v>1.55</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.936999999999999</v>
+        <v>9.94</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.135</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44921.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.06</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.8</v>
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
